--- a/biology/Histoire de la zoologie et de la botanique/Alexandre_Kovalevski/Alexandre_Kovalevski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexandre_Kovalevski/Alexandre_Kovalevski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Onoufrievitch Kovalevski (en russe : Александр Онуфриевич Ковалевский) est un biologiste russe, né le 7 novembre 1840 à Dunabourg et mort le 9 novembre 1901 à Saint-Pétersbourg.
 Il étudie la médecine à l’université de Heidelberg et enseigne à l'université de Saint-Pétersbourg. Ce spécialiste de l’embryologie démontre que tous les animaux connaissent une période de gastrulation.
-Il démontre aussi que les Tuniciers sont des Chordés[1]. Ses travaux suscitent de nombreux développements notamment par Édouard van Beneden et de son école, d'Alfred Giard et de Henri de Lacaze-Duthiers. En 1867, il montre que le développement des Ascidies rappelle celui des Céphalocordés[1].
+Il démontre aussi que les Tuniciers sont des Chordés. Ses travaux suscitent de nombreux développements notamment par Édouard van Beneden et de son école, d'Alfred Giard et de Henri de Lacaze-Duthiers. En 1867, il montre que le développement des Ascidies rappelle celui des Céphalocordés.
 Son frère est le paléontologue Vladimir Kovalevski, et sa belle-sœur est la mathématicienne Sofia Kovalevskaïa.
 </t>
         </is>
